--- a/Daily/Forecast/Non-Stationarity/Square Log-Price/sony.xlsx
+++ b/Daily/Forecast/Non-Stationarity/Square Log-Price/sony.xlsx
@@ -417,13 +417,13 @@
         <v>2584</v>
       </c>
       <c r="C2">
-        <v>90.81715104974843</v>
+        <v>90.81760224638852</v>
       </c>
       <c r="D2">
-        <v>88.89281565429525</v>
+        <v>88.8932668042893</v>
       </c>
       <c r="E2">
-        <v>92.74148644520162</v>
+        <v>92.74193768848774</v>
       </c>
       <c r="F2">
         <v>90.68674677709572</v>
@@ -437,13 +437,13 @@
         <v>2585</v>
       </c>
       <c r="C3">
-        <v>90.68541098075058</v>
+        <v>90.68564563407902</v>
       </c>
       <c r="D3">
-        <v>88.76144153915573</v>
+        <v>88.76167562079857</v>
       </c>
       <c r="E3">
-        <v>92.60938042234542</v>
+        <v>92.60961564735948</v>
       </c>
       <c r="F3">
         <v>90.7771168060234</v>
@@ -457,13 +457,13 @@
         <v>2586</v>
       </c>
       <c r="C4">
-        <v>90.7761818773515</v>
+        <v>90.77597896592465</v>
       </c>
       <c r="D4">
-        <v>88.85258127566981</v>
+        <v>88.85237683260631</v>
       </c>
       <c r="E4">
-        <v>92.6997824790332</v>
+        <v>92.69958109924299</v>
       </c>
       <c r="F4">
         <v>90.40625269151286</v>
@@ -477,13 +477,13 @@
         <v>2587</v>
       </c>
       <c r="C5">
-        <v>90.40450913440193</v>
+        <v>90.40512785253459</v>
       </c>
       <c r="D5">
-        <v>88.48122680423602</v>
+        <v>88.48184497991684</v>
       </c>
       <c r="E5">
-        <v>92.32779146456785</v>
+        <v>92.32841072515234</v>
       </c>
       <c r="F5">
         <v>90.16488704653221</v>
@@ -497,13 +497,13 @@
         <v>2588</v>
       </c>
       <c r="C6">
-        <v>90.16331772631773</v>
+        <v>90.16190760627198</v>
       </c>
       <c r="D6">
-        <v>88.24038528795526</v>
+        <v>88.23892420745159</v>
       </c>
       <c r="E6">
-        <v>92.08625016468019</v>
+        <v>92.08489100509237</v>
       </c>
       <c r="F6">
         <v>89.79034663583158</v>
@@ -517,13 +517,13 @@
         <v>2589</v>
       </c>
       <c r="C7">
-        <v>89.78841357019314</v>
+        <v>89.78924289961002</v>
       </c>
       <c r="D7">
-        <v>87.86579862173697</v>
+        <v>87.86662729783124</v>
       </c>
       <c r="E7">
-        <v>91.71102851864931</v>
+        <v>91.71185850138879</v>
       </c>
       <c r="F7">
         <v>89.71755472169779</v>
@@ -537,13 +537,13 @@
         <v>2590</v>
       </c>
       <c r="C8">
-        <v>89.71628481099438</v>
+        <v>89.71645090291223</v>
       </c>
       <c r="D8">
-        <v>87.79403913750826</v>
+        <v>87.79420449072899</v>
       </c>
       <c r="E8">
-        <v>91.6385304844805</v>
+        <v>91.63869731509547</v>
       </c>
       <c r="F8">
         <v>89.4829245882363</v>
@@ -557,13 +557,13 @@
         <v>2591</v>
       </c>
       <c r="C9">
-        <v>89.48126838878837</v>
+        <v>89.48182065064123</v>
       </c>
       <c r="D9">
-        <v>87.55937261042951</v>
+        <v>87.55992410938047</v>
       </c>
       <c r="E9">
-        <v>91.40316416714722</v>
+        <v>91.40371719190198</v>
       </c>
       <c r="F9">
         <v>89.96403378050371</v>
@@ -577,13 +577,13 @@
         <v>2592</v>
       </c>
       <c r="C10">
-        <v>89.96390002134261</v>
+        <v>89.96293302933846</v>
       </c>
       <c r="D10">
-        <v>88.04228537198262</v>
+        <v>88.04131781800751</v>
       </c>
       <c r="E10">
-        <v>91.88551467070261</v>
+        <v>91.8845482406694</v>
       </c>
       <c r="F10">
         <v>89.80487505375132</v>
@@ -597,13 +597,13 @@
         <v>2593</v>
       </c>
       <c r="C11">
-        <v>89.80348946089553</v>
+        <v>89.80377538044722</v>
       </c>
       <c r="D11">
-        <v>87.88223557176772</v>
+        <v>87.88252108948879</v>
       </c>
       <c r="E11">
-        <v>91.72474335002335</v>
+        <v>91.72502967140565</v>
       </c>
       <c r="F11">
         <v>89.68106473967981</v>
@@ -617,13 +617,13 @@
         <v>2594</v>
       </c>
       <c r="C12">
-        <v>89.67970999498812</v>
+        <v>89.67996460465901</v>
       </c>
       <c r="D12">
-        <v>87.75881936661722</v>
+        <v>87.75907482124467</v>
       </c>
       <c r="E12">
-        <v>91.60060062335901</v>
+        <v>91.60085438807334</v>
       </c>
       <c r="F12">
         <v>90.20768081242539</v>
@@ -637,13 +637,13 @@
         <v>2595</v>
       </c>
       <c r="C13">
-        <v>90.20744173181791</v>
+        <v>90.20657724024207</v>
       </c>
       <c r="D13">
-        <v>88.28681527031955</v>
+        <v>88.28595035502923</v>
       </c>
       <c r="E13">
-        <v>92.12806819331627</v>
+        <v>92.12720412545491</v>
       </c>
       <c r="F13">
         <v>90.01442565728298</v>
@@ -657,13 +657,13 @@
         <v>2596</v>
       </c>
       <c r="C14">
-        <v>90.01306658331318</v>
+        <v>90.01332685354767</v>
       </c>
       <c r="D14">
-        <v>88.09279568787184</v>
+        <v>88.09305575894372</v>
       </c>
       <c r="E14">
-        <v>91.93333747875451</v>
+        <v>91.93359794815161</v>
       </c>
       <c r="F14">
         <v>90.17916122249585</v>
@@ -677,13 +677,13 @@
         <v>2597</v>
       </c>
       <c r="C15">
-        <v>90.17825959847805</v>
+        <v>90.17806275379473</v>
       </c>
       <c r="D15">
-        <v>88.25834772547194</v>
+        <v>88.25815086975055</v>
       </c>
       <c r="E15">
-        <v>92.09817147148416</v>
+        <v>92.09797463783892</v>
       </c>
       <c r="F15">
         <v>89.94240055184218</v>
@@ -697,13 +697,13 @@
         <v>2598</v>
       </c>
       <c r="C16">
-        <v>89.94103693170378</v>
+        <v>89.94128398328358</v>
       </c>
       <c r="D16">
-        <v>88.02147327765329</v>
+        <v>88.02171970837435</v>
       </c>
       <c r="E16">
-        <v>91.86060058575427</v>
+        <v>91.86084825819282</v>
       </c>
       <c r="F16">
         <v>89.73941857211932</v>
@@ -717,13 +717,13 @@
         <v>2599</v>
       </c>
       <c r="C17">
-        <v>89.73806228516047</v>
+        <v>89.73831889674251</v>
       </c>
       <c r="D17">
-        <v>87.81885221516286</v>
+        <v>87.81910861863098</v>
       </c>
       <c r="E17">
-        <v>91.65727235515807</v>
+        <v>91.65752917485405</v>
       </c>
       <c r="F17">
         <v>89.4829245882363</v>
@@ -737,13 +737,13 @@
         <v>2600</v>
       </c>
       <c r="C18">
-        <v>89.48145944813102</v>
+        <v>89.48182223223175</v>
       </c>
       <c r="D18">
-        <v>87.56259332622083</v>
+        <v>87.56295580924164</v>
       </c>
       <c r="E18">
-        <v>91.4003255700412</v>
+        <v>91.40068865522186</v>
       </c>
       <c r="F18">
         <v>89.25311788654787</v>
@@ -757,13 +757,13 @@
         <v>2601</v>
       </c>
       <c r="C19">
-        <v>89.25164867674407</v>
+        <v>89.25179137048896</v>
       </c>
       <c r="D19">
-        <v>87.33313129517833</v>
+        <v>87.33326798866169</v>
       </c>
       <c r="E19">
-        <v>91.1701660583098</v>
+        <v>91.17031475231623</v>
       </c>
       <c r="F19">
         <v>88.91501578437804</v>
@@ -777,13 +777,13 @@
         <v>2602</v>
       </c>
       <c r="C20">
-        <v>88.91329257580863</v>
+        <v>88.91390978970968</v>
       </c>
       <c r="D20">
-        <v>86.99510013983928</v>
+        <v>86.99571686430389</v>
       </c>
       <c r="E20">
-        <v>90.83148501177797</v>
+        <v>90.83210271511547</v>
       </c>
       <c r="F20">
         <v>89.74670151003308</v>
@@ -797,13 +797,13 @@
         <v>2603</v>
       </c>
       <c r="C21">
-        <v>89.7464155219029</v>
+        <v>89.74559756629034</v>
       </c>
       <c r="D21">
-        <v>87.8283247757971</v>
+        <v>87.82750661400776</v>
       </c>
       <c r="E21">
-        <v>91.66450626800871</v>
+        <v>91.66368851857293</v>
       </c>
       <c r="F21">
         <v>89.54182641247768</v>
@@ -817,13 +817,13 @@
         <v>2604</v>
       </c>
       <c r="C22">
-        <v>89.54063082958652</v>
+        <v>89.54071098614736</v>
       </c>
       <c r="D22">
-        <v>87.6228922477159</v>
+        <v>87.62297204180905</v>
       </c>
       <c r="E22">
-        <v>91.45836941145714</v>
+        <v>91.45844993048567</v>
       </c>
       <c r="F22">
         <v>90.02161473308693</v>
@@ -837,13 +837,13 @@
         <v>2605</v>
       </c>
       <c r="C23">
-        <v>90.02052242585755</v>
+        <v>90.02051389072588</v>
       </c>
       <c r="D23">
-        <v>88.10306113916162</v>
+        <v>88.10305465764051</v>
       </c>
       <c r="E23">
-        <v>91.93798371255347</v>
+        <v>91.93797312381125</v>
       </c>
       <c r="F23">
         <v>90.10053419077069</v>
@@ -857,13 +857,13 @@
         <v>2606</v>
       </c>
       <c r="C24">
-        <v>90.09945791032138</v>
+        <v>90.09942526114246</v>
       </c>
       <c r="D24">
-        <v>88.18236425468538</v>
+        <v>88.18233131324399</v>
       </c>
       <c r="E24">
-        <v>92.01655156595737</v>
+        <v>92.01651920904092</v>
       </c>
       <c r="F24">
         <v>89.84115257812945</v>
@@ -877,13 +877,13 @@
         <v>2607</v>
       </c>
       <c r="C25">
-        <v>89.83998990257382</v>
+        <v>89.84004617432461</v>
       </c>
       <c r="D25">
-        <v>87.92323794439545</v>
+        <v>87.92329428578996</v>
       </c>
       <c r="E25">
-        <v>91.75674186075219</v>
+        <v>91.75679806285926</v>
       </c>
       <c r="F25">
         <v>89.8990677638448</v>
@@ -897,13 +897,13 @@
         <v>2608</v>
       </c>
       <c r="C26">
-        <v>89.89797618078768</v>
+        <v>89.89796920969779</v>
       </c>
       <c r="D26">
-        <v>87.98159063304215</v>
+        <v>87.98158371024405</v>
       </c>
       <c r="E26">
-        <v>91.81436172853321</v>
+        <v>91.81435470915153</v>
       </c>
       <c r="F26">
         <v>90.11485169852719</v>
@@ -917,13 +917,13 @@
         <v>2609</v>
       </c>
       <c r="C27">
-        <v>90.11380060643168</v>
+        <v>90.113721202788</v>
       </c>
       <c r="D27">
-        <v>88.19776444718023</v>
+        <v>88.19768418218027</v>
       </c>
       <c r="E27">
-        <v>92.02983676568313</v>
+        <v>92.02975822339573</v>
       </c>
       <c r="F27">
         <v>89.95682515628685</v>
@@ -937,13 +937,13 @@
         <v>2610</v>
       </c>
       <c r="C28">
-        <v>89.95571140568727</v>
+        <v>89.9557273086283</v>
       </c>
       <c r="D28">
-        <v>88.04003280721066</v>
+        <v>88.04004870213569</v>
       </c>
       <c r="E28">
-        <v>91.87139000416387</v>
+        <v>91.8714059151209</v>
       </c>
       <c r="F28">
         <v>89.96403378050371</v>
@@ -957,13 +957,13 @@
         <v>2611</v>
       </c>
       <c r="C29">
-        <v>89.96293738198915</v>
+        <v>89.96292009529705</v>
       </c>
       <c r="D29">
-        <v>88.04762565639868</v>
+        <v>88.04760794527809</v>
       </c>
       <c r="E29">
-        <v>91.87824910757962</v>
+        <v>91.87823224531601</v>
       </c>
       <c r="F29">
         <v>90.03598557929139</v>
@@ -977,13 +977,13 @@
         <v>2612</v>
       </c>
       <c r="C30">
-        <v>90.03489201290181</v>
+        <v>90.03488451019587</v>
       </c>
       <c r="D30">
-        <v>88.11994483277809</v>
+        <v>88.11993732559598</v>
       </c>
       <c r="E30">
-        <v>91.94983919302553</v>
+        <v>91.94983169479575</v>
       </c>
       <c r="F30">
         <v>89.79034663583158</v>
@@ -997,13 +997,13 @@
         <v>2613</v>
       </c>
       <c r="C31">
-        <v>89.7892348371807</v>
+        <v>89.78924920268885</v>
       </c>
       <c r="D31">
-        <v>87.87463115742655</v>
+        <v>87.87464553676966</v>
       </c>
       <c r="E31">
-        <v>91.70383851693485</v>
+        <v>91.70385286860804</v>
       </c>
       <c r="F31">
         <v>90.18629471268663</v>
@@ -1017,13 +1017,13 @@
         <v>2614</v>
       </c>
       <c r="C32">
-        <v>90.18510259551493</v>
+        <v>90.1851974409276</v>
       </c>
       <c r="D32">
-        <v>88.27080484172592</v>
+        <v>88.27089964465212</v>
       </c>
       <c r="E32">
-        <v>92.09940034930395</v>
+        <v>92.09949523720307</v>
       </c>
       <c r="F32">
         <v>90.42036562919498</v>
@@ -1037,13 +1037,13 @@
         <v>2615</v>
       </c>
       <c r="C33">
-        <v>90.41927431500976</v>
+        <v>90.41927238719461</v>
       </c>
       <c r="D33">
-        <v>88.50532138647954</v>
+        <v>88.50531959974445</v>
       </c>
       <c r="E33">
-        <v>92.33322724353998</v>
+        <v>92.33322517464477</v>
       </c>
       <c r="F33">
         <v>90.0718701608118</v>
@@ -1057,13 +1057,13 @@
         <v>2616</v>
       </c>
       <c r="C34">
-        <v>90.07084423339896</v>
+        <v>90.07077240765339</v>
       </c>
       <c r="D34">
-        <v>88.15721072967938</v>
+        <v>88.15713894223346</v>
       </c>
       <c r="E34">
-        <v>91.98447773711854</v>
+        <v>91.98440587307333</v>
       </c>
       <c r="F34">
         <v>89.63719359853251</v>
@@ -1077,13 +1077,13 @@
         <v>2617</v>
       </c>
       <c r="C35">
-        <v>89.63598617821437</v>
+        <v>89.63607989590319</v>
       </c>
       <c r="D35">
-        <v>87.72264608981962</v>
+        <v>87.72273943001724</v>
       </c>
       <c r="E35">
-        <v>91.54932626660911</v>
+        <v>91.54942036178915</v>
       </c>
       <c r="F35">
         <v>89.62254966060689</v>
@@ -1097,13 +1097,13 @@
         <v>2618</v>
       </c>
       <c r="C36">
-        <v>89.62144726995241</v>
+        <v>89.62144800502604</v>
       </c>
       <c r="D36">
-        <v>87.70847258352765</v>
+        <v>87.70847322304117</v>
       </c>
       <c r="E36">
-        <v>91.53442195637717</v>
+        <v>91.53442278701091</v>
       </c>
       <c r="F36">
         <v>89.60789558603251</v>
@@ -1117,13 +1117,13 @@
         <v>2619</v>
       </c>
       <c r="C37">
-        <v>89.60679414597465</v>
+        <v>89.60679476214672</v>
       </c>
       <c r="D37">
-        <v>87.69418461303256</v>
+        <v>87.69418517192173</v>
       </c>
       <c r="E37">
-        <v>91.51940367891673</v>
+        <v>91.51940435237171</v>
       </c>
       <c r="F37">
         <v>89.69566827811026</v>
@@ -1137,13 +1137,13 @@
         <v>2620</v>
       </c>
       <c r="C38">
-        <v>89.69459065574138</v>
+        <v>89.69456795030283</v>
       </c>
       <c r="D38">
-        <v>87.78234312649765</v>
+        <v>87.78232040825766</v>
       </c>
       <c r="E38">
-        <v>91.60683818498511</v>
+        <v>91.60681549234799</v>
       </c>
       <c r="F38">
         <v>89.71026175327903</v>
@@ -1157,13 +1157,13 @@
         <v>2621</v>
       </c>
       <c r="C39">
-        <v>89.7091553537856</v>
+        <v>89.70806845206705</v>
       </c>
       <c r="D39">
-        <v>87.79727231540406</v>
+        <v>87.79615728320225</v>
       </c>
       <c r="E39">
-        <v>91.62103839216715</v>
+        <v>91.61997962093186</v>
       </c>
       <c r="F39">
         <v>89.0884998632821</v>
@@ -1177,13 +1177,13 @@
         <v>2622</v>
       </c>
       <c r="C40">
-        <v>89.08724595716079</v>
+        <v>89.08739525605492</v>
       </c>
       <c r="D40">
-        <v>87.17557992463104</v>
+        <v>87.17572914902249</v>
       </c>
       <c r="E40">
-        <v>90.99891198969054</v>
+        <v>90.99906136308735</v>
       </c>
       <c r="F40">
         <v>88.49428200033161</v>
@@ -1197,13 +1197,13 @@
         <v>2623</v>
       </c>
       <c r="C41">
-        <v>88.49237190865882</v>
+        <v>88.49317328585938</v>
       </c>
       <c r="D41">
-        <v>86.58093548751877</v>
+        <v>86.5817365587977</v>
       </c>
       <c r="E41">
-        <v>90.40380832979888</v>
+        <v>90.40461001292107</v>
       </c>
       <c r="F41">
         <v>88.56370684752244</v>
@@ -1217,13 +1217,13 @@
         <v>2624</v>
       </c>
       <c r="C42">
-        <v>88.56268621234148</v>
+        <v>88.56259871997402</v>
       </c>
       <c r="D42">
-        <v>86.65161213831972</v>
+        <v>86.65152437989121</v>
       </c>
       <c r="E42">
-        <v>90.47376028636323</v>
+        <v>90.47367306005683</v>
       </c>
       <c r="F42">
         <v>88.23774671952165</v>
@@ -1237,13 +1237,13 @@
         <v>2625</v>
       </c>
       <c r="C43">
-        <v>88.23626136904061</v>
+        <v>88.23663708730821</v>
       </c>
       <c r="D43">
-        <v>86.32551077457558</v>
+        <v>86.32588624590501</v>
       </c>
       <c r="E43">
-        <v>90.14701196350563</v>
+        <v>90.14738792871141</v>
       </c>
       <c r="F43">
         <v>88.42462744941854</v>
@@ -1257,13 +1257,13 @@
         <v>2626</v>
       </c>
       <c r="C44">
-        <v>88.42370178426468</v>
+        <v>88.42352201688179</v>
       </c>
       <c r="D44">
-        <v>86.51330153491307</v>
+        <v>86.51312165398096</v>
       </c>
       <c r="E44">
-        <v>90.33410203361629</v>
+        <v>90.33392237978262</v>
       </c>
       <c r="F44">
         <v>88.24556665972332</v>
@@ -1277,13 +1277,13 @@
         <v>2627</v>
       </c>
       <c r="C45">
-        <v>88.24430200324159</v>
+        <v>88.24445817188797</v>
       </c>
       <c r="D45">
-        <v>86.3342531827135</v>
+        <v>86.33440919988064</v>
       </c>
       <c r="E45">
-        <v>90.15435082376968</v>
+        <v>90.1545071438953</v>
       </c>
       <c r="F45">
         <v>88.22209810816794</v>
@@ -1297,13 +1297,13 @@
         <v>2628</v>
       </c>
       <c r="C46">
-        <v>88.22095939943374</v>
+        <v>88.22099218031443</v>
       </c>
       <c r="D46">
-        <v>86.31127355846381</v>
+        <v>86.31130651053645</v>
       </c>
       <c r="E46">
-        <v>90.13064524040367</v>
+        <v>90.1306778500924</v>
       </c>
       <c r="F46">
         <v>88.32360653569265</v>
@@ -1317,13 +1317,13 @@
         <v>2629</v>
       </c>
       <c r="C47">
-        <v>88.32258896941083</v>
+        <v>88.32246422839563</v>
       </c>
       <c r="D47">
-        <v>86.41326263651312</v>
+        <v>86.41313689790969</v>
       </c>
       <c r="E47">
-        <v>90.23191530230854</v>
+        <v>90.23179155888157</v>
       </c>
       <c r="F47">
         <v>88.30022496446195</v>
@@ -1337,13 +1337,13 @@
         <v>2630</v>
       </c>
       <c r="C48">
-        <v>88.29908773805631</v>
+        <v>88.299119878678</v>
       </c>
       <c r="D48">
-        <v>86.39012398835011</v>
+        <v>86.39015628954049</v>
       </c>
       <c r="E48">
-        <v>90.20805148776252</v>
+        <v>90.20808346781551</v>
       </c>
       <c r="F48">
         <v>88.24556665972332</v>
@@ -1357,13 +1357,13 @@
         <v>2631</v>
       </c>
       <c r="C49">
-        <v>88.24441336362675</v>
+        <v>88.24445892477955</v>
       </c>
       <c r="D49">
-        <v>86.3358115911726</v>
+        <v>86.33585697436371</v>
       </c>
       <c r="E49">
-        <v>90.1530151360809</v>
+        <v>90.15306087519539</v>
       </c>
       <c r="F49">
         <v>88.00178523579221</v>
@@ -1377,13 +1377,13 @@
         <v>2632</v>
       </c>
       <c r="C50">
-        <v>88.00045641261123</v>
+        <v>88.00067826770069</v>
       </c>
       <c r="D50">
-        <v>86.09219458593391</v>
+        <v>86.09241635024095</v>
       </c>
       <c r="E50">
-        <v>89.90871823928855</v>
+        <v>89.90894018516043</v>
       </c>
       <c r="F50">
         <v>88.22209810816794</v>
@@ -1397,13 +1397,13 @@
         <v>2633</v>
       </c>
       <c r="C51">
-        <v>88.22103788961434</v>
+        <v>88.22098561303797</v>
       </c>
       <c r="D51">
-        <v>86.31311669686772</v>
+        <v>86.31306729070722</v>
       </c>
       <c r="E51">
-        <v>90.12895908236095</v>
+        <v>90.12890393536871</v>
       </c>
       <c r="F51">
         <v>88.143679837723</v>
@@ -1417,13 +1417,13 @@
         <v>2634</v>
       </c>
       <c r="C52">
-        <v>88.14251742220421</v>
+        <v>88.1425671637742</v>
       </c>
       <c r="D52">
-        <v>86.23495921069828</v>
+        <v>86.23500873396127</v>
       </c>
       <c r="E52">
-        <v>90.05007563371014</v>
+        <v>90.05012559358714</v>
       </c>
       <c r="F52">
         <v>88.27681737045884</v>
@@ -1437,13 +1437,13 @@
         <v>2635</v>
       </c>
       <c r="C53">
-        <v>88.27580102528327</v>
+        <v>88.27571359353831</v>
       </c>
       <c r="D53">
-        <v>86.36859800996211</v>
+        <v>86.36851053400596</v>
       </c>
       <c r="E53">
-        <v>90.18300404060443</v>
+        <v>90.18291665307066</v>
       </c>
       <c r="F53">
         <v>88.44787125444903</v>
@@ -1457,13 +1457,13 @@
         <v>2636</v>
       </c>
       <c r="C54">
-        <v>88.44689478664029</v>
+        <v>88.44676642462116</v>
       </c>
       <c r="D54">
-        <v>86.54004236604462</v>
+        <v>86.53991386097574</v>
       </c>
       <c r="E54">
-        <v>90.35374720723595</v>
+        <v>90.35361898826658</v>
       </c>
       <c r="F54">
         <v>89.0433804383056</v>
@@ -1477,13 +1477,13 @@
         <v>2637</v>
       </c>
       <c r="C55">
-        <v>89.04290206433909</v>
+        <v>89.04227296271156</v>
       </c>
       <c r="D55">
-        <v>87.13627554441511</v>
+        <v>87.13564611905134</v>
       </c>
       <c r="E55">
-        <v>90.94952858426306</v>
+        <v>90.94889980637178</v>
       </c>
       <c r="F55">
         <v>89.01324715730885</v>
@@ -1497,13 +1497,13 @@
         <v>2638</v>
       </c>
       <c r="C56">
-        <v>89.01209817218214</v>
+        <v>89.0121435556497</v>
       </c>
       <c r="D56">
-        <v>87.10583229052867</v>
+        <v>87.1058778886114</v>
       </c>
       <c r="E56">
-        <v>90.9183640538356</v>
+        <v>90.918409222688</v>
       </c>
       <c r="F56">
         <v>88.96041017101629</v>
@@ -1517,13 +1517,13 @@
         <v>2639</v>
       </c>
       <c r="C57">
-        <v>88.95925830261899</v>
+        <v>88.95930655051589</v>
       </c>
       <c r="D57">
-        <v>87.05335306192288</v>
+        <v>87.05340105089189</v>
       </c>
       <c r="E57">
-        <v>90.86516354331511</v>
+        <v>90.86521205013989</v>
       </c>
       <c r="F57">
         <v>89.27546674354596</v>
@@ -1537,13 +1537,13 @@
         <v>2640</v>
       </c>
       <c r="C58">
-        <v>89.2746664264653</v>
+        <v>89.27436557441833</v>
       </c>
       <c r="D58">
-        <v>87.36908415618548</v>
+        <v>87.3687830691325</v>
       </c>
       <c r="E58">
-        <v>91.18024869674512</v>
+        <v>91.17994807970415</v>
       </c>
       <c r="F58">
         <v>89.18592913625444</v>
@@ -1557,13 +1557,13 @@
         <v>2641</v>
       </c>
       <c r="C59">
-        <v>89.18475439655195</v>
+        <v>89.18483031045467</v>
       </c>
       <c r="D59">
-        <v>87.27952989050208</v>
+        <v>87.27960565367626</v>
       </c>
       <c r="E59">
-        <v>91.08997890260183</v>
+        <v>91.09005496723309</v>
       </c>
       <c r="F59">
         <v>88.80110057683372</v>
@@ -1577,13 +1577,13 @@
         <v>2642</v>
       </c>
       <c r="C60">
-        <v>88.79962580202134</v>
+        <v>88.79999922635555</v>
       </c>
       <c r="D60">
-        <v>86.89470547677908</v>
+        <v>86.89507879000497</v>
       </c>
       <c r="E60">
-        <v>90.7045461272636</v>
+        <v>90.70491966270613</v>
       </c>
       <c r="F60">
         <v>88.93772518615596</v>
@@ -1597,13 +1597,13 @@
         <v>2643</v>
       </c>
       <c r="C61">
-        <v>88.93668502079343</v>
+        <v>88.93662758383175</v>
       </c>
       <c r="D61">
-        <v>87.03211669011895</v>
+        <v>87.03206044911916</v>
       </c>
       <c r="E61">
-        <v>90.84125335146791</v>
+        <v>90.84119471854434</v>
       </c>
       <c r="F61">
         <v>89.16348531652892</v>
@@ -1617,13 +1617,13 @@
         <v>2644</v>
       </c>
       <c r="C62">
-        <v>89.16259062143871</v>
+        <v>89.16237301395495</v>
       </c>
       <c r="D62">
-        <v>87.25836426239161</v>
+        <v>87.25814615074982</v>
       </c>
       <c r="E62">
-        <v>91.06681698048581</v>
+        <v>91.06659987716007</v>
       </c>
       <c r="F62">
         <v>88.90744054823816</v>
@@ -1637,13 +1637,13 @@
         <v>2645</v>
       </c>
       <c r="C63">
-        <v>88.90615614696463</v>
+        <v>88.90634216998619</v>
       </c>
       <c r="D63">
-        <v>87.0022648501712</v>
+        <v>87.00245078399789</v>
       </c>
       <c r="E63">
-        <v>90.81004744375807</v>
+        <v>90.81023355597449</v>
       </c>
       <c r="F63">
         <v>89.20834913577022</v>
@@ -1657,13 +1657,13 @@
         <v>2646</v>
       </c>
       <c r="C64">
-        <v>89.20738644385119</v>
+        <v>89.20724963572324</v>
       </c>
       <c r="D64">
-        <v>87.30382015419096</v>
+        <v>87.30368333350019</v>
       </c>
       <c r="E64">
-        <v>91.11095273351143</v>
+        <v>91.1108159379463</v>
       </c>
       <c r="F64">
         <v>89.6298728957286</v>
@@ -1677,13 +1677,13 @@
         <v>2647</v>
       </c>
       <c r="C65">
-        <v>89.62913597521643</v>
+        <v>89.62877139290764</v>
       </c>
       <c r="D65">
-        <v>87.7258615576869</v>
+        <v>87.72549667608462</v>
       </c>
       <c r="E65">
-        <v>91.53241039274596</v>
+        <v>91.53204610973066</v>
       </c>
       <c r="F65">
         <v>89.44602749743578</v>
@@ -1697,13 +1697,13 @@
         <v>2648</v>
       </c>
       <c r="C66">
-        <v>89.44481244139683</v>
+        <v>89.44493370100119</v>
       </c>
       <c r="D66">
-        <v>87.54188454055125</v>
+        <v>87.54200580372363</v>
       </c>
       <c r="E66">
-        <v>91.34774034224242</v>
+        <v>91.34786159827875</v>
       </c>
       <c r="F66">
         <v>89.14101762327297</v>
@@ -1717,13 +1717,13 @@
         <v>2649</v>
       </c>
       <c r="C67">
-        <v>89.13967450544185</v>
+        <v>89.1399217898569</v>
       </c>
       <c r="D67">
-        <v>87.23707056811612</v>
+        <v>87.23731776029307</v>
       </c>
       <c r="E67">
-        <v>91.04227844276757</v>
+        <v>91.04252581942073</v>
       </c>
       <c r="F67">
         <v>88.71716986868563</v>
@@ -1737,13 +1737,13 @@
         <v>2650</v>
       </c>
       <c r="C68">
-        <v>88.71556153432594</v>
+        <v>88.71606633530459</v>
       </c>
       <c r="D68">
-        <v>86.81324836860222</v>
+        <v>86.81375290594825</v>
       </c>
       <c r="E68">
-        <v>90.61787470004967</v>
+        <v>90.61837976466093</v>
       </c>
       <c r="F68">
         <v>88.53287961628351</v>
@@ -1757,13 +1757,13 @@
         <v>2651</v>
       </c>
       <c r="C69">
-        <v>88.5315158372663</v>
+        <v>88.53177849594668</v>
       </c>
       <c r="D69">
-        <v>86.62954875542206</v>
+        <v>86.62981111129648</v>
       </c>
       <c r="E69">
-        <v>90.43348291911053</v>
+        <v>90.43374588059689</v>
       </c>
       <c r="F69">
         <v>88.82393289769011</v>
@@ -1777,13 +1777,13 @@
         <v>2652</v>
       </c>
       <c r="C70">
-        <v>88.82320753769956</v>
+        <v>88.82283370922002</v>
       </c>
       <c r="D70">
-        <v>86.92156666256943</v>
+        <v>86.92119257704181</v>
       </c>
       <c r="E70">
-        <v>90.72484841282969</v>
+        <v>90.72447484139823</v>
       </c>
       <c r="F70">
         <v>88.640578092634</v>
@@ -1797,13 +1797,13 @@
         <v>2653</v>
       </c>
       <c r="C71">
-        <v>88.63927040017327</v>
+        <v>88.6394780522905</v>
       </c>
       <c r="D71">
-        <v>86.73797508400801</v>
+        <v>86.73818262264385</v>
       </c>
       <c r="E71">
-        <v>90.54056571633853</v>
+        <v>90.54077348193715</v>
       </c>
       <c r="F71">
         <v>88.84674052282064</v>
@@ -1817,13 +1817,13 @@
         <v>2654</v>
       </c>
       <c r="C72">
-        <v>88.84584808360685</v>
+        <v>88.84564210384654</v>
       </c>
       <c r="D72">
-        <v>86.94489480154182</v>
+        <v>86.94468865024484</v>
       </c>
       <c r="E72">
-        <v>90.74680136567189</v>
+        <v>90.74659555744825</v>
       </c>
       <c r="F72">
         <v>88.57140660935906</v>
@@ -1837,13 +1837,13 @@
         <v>2655</v>
       </c>
       <c r="C73">
-        <v>88.57007598397175</v>
+        <v>88.57030669316222</v>
       </c>
       <c r="D73">
-        <v>86.6694518495152</v>
+        <v>86.66968252134433</v>
       </c>
       <c r="E73">
-        <v>90.4707001184283</v>
+        <v>90.47093086498012</v>
       </c>
       <c r="F73">
         <v>88.59448901920469</v>
@@ -1857,13 +1857,13 @@
         <v>2656</v>
       </c>
       <c r="C74">
-        <v>88.59340727471724</v>
+        <v>88.59337343702633</v>
       </c>
       <c r="D74">
-        <v>86.69314080831424</v>
+        <v>86.69310649710491</v>
       </c>
       <c r="E74">
-        <v>90.49367374112023</v>
+        <v>90.49364037694775</v>
       </c>
       <c r="F74">
         <v>88.54059065601997</v>
@@ -1877,13 +1877,13 @@
         <v>2657</v>
       </c>
       <c r="C75">
-        <v>88.53944878342898</v>
+        <v>88.53948325563921</v>
       </c>
       <c r="D75">
-        <v>86.63953891940396</v>
+        <v>86.63957306958805</v>
       </c>
       <c r="E75">
-        <v>90.439358647454</v>
+        <v>90.43939344169037</v>
       </c>
       <c r="F75">
         <v>88.62522626973123</v>
@@ -1897,13 +1897,13 @@
         <v>2658</v>
       </c>
       <c r="C76">
-        <v>88.62419550402602</v>
+        <v>88.62412854627694</v>
       </c>
       <c r="D76">
-        <v>86.72464031846178</v>
+        <v>86.72457325514884</v>
       </c>
       <c r="E76">
-        <v>90.52375068959026</v>
+        <v>90.52368383740503</v>
       </c>
       <c r="F76">
         <v>88.39359571987106</v>
@@ -1917,13 +1917,13 @@
         <v>2659</v>
       </c>
       <c r="C77">
-        <v>88.39232815302331</v>
+        <v>88.39249763923041</v>
       </c>
       <c r="D77">
-        <v>86.49310986281196</v>
+        <v>86.49327928224118</v>
       </c>
       <c r="E77">
-        <v>90.29154644323467</v>
+        <v>90.29171599621965</v>
       </c>
       <c r="F77">
         <v>88.71716986868563</v>
@@ -1937,13 +1937,13 @@
         <v>2660</v>
       </c>
       <c r="C78">
-        <v>88.71622357162461</v>
+        <v>88.71606460803123</v>
       </c>
       <c r="D78">
-        <v>86.81732200407173</v>
+        <v>86.81716311683469</v>
       </c>
       <c r="E78">
-        <v>90.61512513917749</v>
+        <v>90.61496609922777</v>
       </c>
       <c r="F78">
         <v>88.62522626973123</v>
@@ -1957,13 +1957,13 @@
         <v>2661</v>
       </c>
       <c r="C79">
-        <v>88.62409078674061</v>
+        <v>88.62409834999974</v>
       </c>
       <c r="D79">
-        <v>86.7255432126303</v>
+        <v>86.72554997291147</v>
       </c>
       <c r="E79">
-        <v>90.52263836085092</v>
+        <v>90.52264672708802</v>
       </c>
       <c r="F79">
         <v>89.14850951027169</v>
@@ -1977,13 +1977,13 @@
         <v>2662</v>
       </c>
       <c r="C80">
-        <v>89.14755431989656</v>
+        <v>89.14741281709968</v>
       </c>
       <c r="D80">
-        <v>87.24925898872291</v>
+        <v>87.24911747839136</v>
       </c>
       <c r="E80">
-        <v>91.0458496510702</v>
+        <v>91.045708155808</v>
       </c>
       <c r="F80">
         <v>89.29779199180854</v>
@@ -1997,13 +1997,13 @@
         <v>2663</v>
       </c>
       <c r="C81">
-        <v>89.29677135341856</v>
+        <v>89.29670005626002</v>
       </c>
       <c r="D81">
-        <v>87.39882398585024</v>
+        <v>87.39875274099805</v>
       </c>
       <c r="E81">
-        <v>91.19471872098688</v>
+        <v>91.194647371522</v>
       </c>
       <c r="F81">
         <v>89.88460379593674</v>
@@ -2017,13 +2017,13 @@
         <v>2664</v>
       </c>
       <c r="C82">
-        <v>89.88396181814586</v>
+        <v>89.88351470869345</v>
       </c>
       <c r="D82">
-        <v>87.98623976944154</v>
+        <v>87.9857925760906</v>
       </c>
       <c r="E82">
-        <v>91.78168386685019</v>
+        <v>91.78123684129631</v>
       </c>
       <c r="F82">
         <v>89.51239599691762</v>
@@ -2037,13 +2037,13 @@
         <v>2665</v>
       </c>
       <c r="C83">
-        <v>89.51127054122672</v>
+        <v>89.51128376579524</v>
       </c>
       <c r="D83">
-        <v>87.61385192051792</v>
+        <v>87.61386470476511</v>
       </c>
       <c r="E83">
-        <v>91.40868916193553</v>
+        <v>91.40870282682538</v>
       </c>
       <c r="F83">
         <v>89.15599874069649</v>
@@ -2057,13 +2057,13 @@
         <v>2666</v>
       </c>
       <c r="C84">
-        <v>89.15472011384877</v>
+        <v>89.15454174887954</v>
       </c>
       <c r="D84">
-        <v>87.25760932466736</v>
+        <v>87.25742190800388</v>
       </c>
       <c r="E84">
-        <v>91.05183090303018</v>
+        <v>91.0516615897552</v>
       </c>
       <c r="F84">
         <v>89.44602749743578</v>
@@ -2077,13 +2077,13 @@
         <v>2667</v>
       </c>
       <c r="C85">
-        <v>89.44499075229395</v>
+        <v>89.44493288705263</v>
       </c>
       <c r="D85">
-        <v>87.54820363973515</v>
+        <v>87.5481457067752</v>
       </c>
       <c r="E85">
-        <v>91.34177786485274</v>
+        <v>91.34172006733006</v>
       </c>
       <c r="F85">
         <v>89.39426319742361</v>
@@ -2097,13 +2097,13 @@
         <v>2668</v>
       </c>
       <c r="C86">
-        <v>89.39316341995503</v>
+        <v>89.39316946165269</v>
       </c>
       <c r="D86">
-        <v>87.49673082553501</v>
+        <v>87.49673681587603</v>
       </c>
       <c r="E86">
-        <v>91.28959601437505</v>
+        <v>91.28960210742935</v>
       </c>
       <c r="F86">
         <v>89.20087844600437</v>
@@ -2117,13 +2117,13 @@
         <v>2669</v>
       </c>
       <c r="C87">
-        <v>89.19974965987501</v>
+        <v>89.19978184903803</v>
       </c>
       <c r="D87">
-        <v>87.30365826458871</v>
+        <v>87.30369034305001</v>
       </c>
       <c r="E87">
-        <v>91.09584105516132</v>
+        <v>91.09587335502606</v>
       </c>
       <c r="F87">
         <v>89.07347076637228</v>
@@ -2137,13 +2137,13 @@
         <v>2670</v>
       </c>
       <c r="C88">
-        <v>89.07233275985445</v>
+        <v>89.07237324083364</v>
       </c>
       <c r="D88">
-        <v>87.17659008731233</v>
+        <v>87.17663072536962</v>
       </c>
       <c r="E88">
-        <v>90.96807543239656</v>
+        <v>90.96811575629766</v>
       </c>
       <c r="F88">
         <v>88.89986259090045</v>
@@ -2157,13 +2157,13 @@
         <v>2671</v>
       </c>
       <c r="C89">
-        <v>88.89871059568245</v>
+        <v>88.89876263755905</v>
       </c>
       <c r="D89">
-        <v>87.00331175556934</v>
+        <v>87.00336362678888</v>
       </c>
       <c r="E89">
-        <v>90.79410943579555</v>
+        <v>90.79416164832921</v>
       </c>
       <c r="F89">
         <v>89.0809866520824</v>
@@ -2177,13 +2177,13 @@
         <v>2672</v>
       </c>
       <c r="C90">
-        <v>89.07991812794573</v>
+        <v>89.07989427699188</v>
       </c>
       <c r="D90">
-        <v>87.18486104473354</v>
+        <v>87.18483762363719</v>
       </c>
       <c r="E90">
-        <v>90.97497521115793</v>
+        <v>90.97495093034657</v>
       </c>
       <c r="F90">
         <v>89.14101762327297</v>
@@ -2197,13 +2197,13 @@
         <v>2673</v>
       </c>
       <c r="C91">
-        <v>89.1399393811578</v>
+        <v>89.13992132446435</v>
       </c>
       <c r="D91">
-        <v>87.24523581657373</v>
+        <v>87.24521768980041</v>
       </c>
       <c r="E91">
-        <v>91.03464294574188</v>
+        <v>91.03462495912829</v>
       </c>
       <c r="F91">
         <v>88.60217753780265</v>
@@ -2217,13 +2217,13 @@
         <v>2674</v>
       </c>
       <c r="C92">
-        <v>88.60099096030174</v>
+        <v>88.60104040389331</v>
       </c>
       <c r="D92">
-        <v>86.70653185165395</v>
+        <v>86.70658027594774</v>
       </c>
       <c r="E92">
-        <v>90.49545006894954</v>
+        <v>90.49550053183887</v>
       </c>
       <c r="F92">
         <v>88.40911730481848</v>
@@ -2237,13 +2237,13 @@
         <v>2675</v>
       </c>
       <c r="C93">
-        <v>88.4079267000055</v>
+        <v>88.40801768170076</v>
       </c>
       <c r="D93">
-        <v>86.5138076887047</v>
+        <v>86.51389858189535</v>
       </c>
       <c r="E93">
-        <v>90.30204571130631</v>
+        <v>90.30213678150616</v>
       </c>
       <c r="F93">
         <v>88.56370684752244</v>
@@ -2257,13 +2257,13 @@
         <v>2676</v>
       </c>
       <c r="C94">
-        <v>88.562669837957</v>
+        <v>88.56260732538277</v>
       </c>
       <c r="D94">
-        <v>86.66889562807506</v>
+        <v>86.66883302948261</v>
       </c>
       <c r="E94">
-        <v>90.45644404783894</v>
+        <v>90.45638162128293</v>
       </c>
       <c r="F94">
         <v>88.87711237110801</v>
@@ -2277,13 +2277,13 @@
         <v>2677</v>
       </c>
       <c r="C95">
-        <v>88.87618343673304</v>
+        <v>88.87601921945098</v>
       </c>
       <c r="D95">
-        <v>86.9827256332463</v>
+        <v>86.98256143743818</v>
       </c>
       <c r="E95">
-        <v>90.76964124021978</v>
+        <v>90.76947700146378</v>
       </c>
       <c r="F95">
         <v>89.43125062110042</v>
@@ -2297,13 +2297,13 @@
         <v>2678</v>
       </c>
       <c r="C96">
-        <v>89.43072588289196</v>
+        <v>89.42951097198944</v>
       </c>
       <c r="D96">
-        <v>87.53750445211867</v>
+        <v>87.53627378751206</v>
       </c>
       <c r="E96">
-        <v>91.32394731366526</v>
+        <v>91.32274815646683</v>
       </c>
       <c r="F96">
         <v>89.51239599691762</v>
@@ -2317,13 +2317,13 @@
         <v>2679</v>
       </c>
       <c r="C97">
-        <v>89.51139976161868</v>
+        <v>89.51130603742897</v>
       </c>
       <c r="D97">
-        <v>87.61853000020226</v>
+        <v>87.61843610126328</v>
       </c>
       <c r="E97">
-        <v>91.4042695230351</v>
+        <v>91.40417597359465</v>
       </c>
       <c r="F97">
         <v>89.85564621729405</v>
@@ -2337,13 +2337,13 @@
         <v>2680</v>
       </c>
       <c r="C98">
-        <v>89.85499156582827</v>
+        <v>89.85454667752575</v>
       </c>
       <c r="D98">
-        <v>87.96243028122018</v>
+        <v>87.96198488339655</v>
       </c>
       <c r="E98">
-        <v>91.74755285043636</v>
+        <v>91.74710847165494</v>
       </c>
       <c r="F98">
         <v>89.95682515628685</v>
@@ -2357,13 +2357,13 @@
         <v>2681</v>
       </c>
       <c r="C99">
-        <v>89.95587380629992</v>
+        <v>89.9557220480667</v>
       </c>
       <c r="D99">
-        <v>88.06366161476333</v>
+        <v>88.0635092258494</v>
       </c>
       <c r="E99">
-        <v>91.84808599783651</v>
+        <v>91.84793487028401</v>
       </c>
       <c r="F99">
         <v>90.22904539140644</v>
@@ -2377,13 +2377,13 @@
         <v>2682</v>
       </c>
       <c r="C100">
-        <v>90.22835358174444</v>
+        <v>90.22795513280525</v>
       </c>
       <c r="D100">
-        <v>88.33646610553798</v>
+        <v>88.33606723208538</v>
       </c>
       <c r="E100">
-        <v>92.12024105795091</v>
+        <v>92.11984303352511</v>
       </c>
       <c r="F100">
         <v>90.07903979940285</v>
@@ -2397,13 +2397,13 @@
         <v>2683</v>
       </c>
       <c r="C101">
-        <v>90.07775428812391</v>
+        <v>90.07795517944957</v>
       </c>
       <c r="D101">
-        <v>88.18621092229479</v>
+        <v>88.18641158388743</v>
       </c>
       <c r="E101">
-        <v>91.96929765395303</v>
+        <v>91.96949877501171</v>
       </c>
       <c r="F101">
         <v>89.68836776771528</v>
@@ -2417,13 +2417,13 @@
         <v>2684</v>
       </c>
       <c r="C102">
-        <v>89.68669164197372</v>
+        <v>89.6872696400842</v>
       </c>
       <c r="D102">
-        <v>87.7954431121432</v>
+        <v>87.79602056415069</v>
       </c>
       <c r="E102">
-        <v>91.57794017180424</v>
+        <v>91.5785187160177</v>
       </c>
       <c r="F102">
         <v>89.2232825949132</v>
@@ -2437,13 +2437,13 @@
         <v>2685</v>
       </c>
       <c r="C103">
-        <v>89.22124415561372</v>
+        <v>89.22216720486833</v>
       </c>
       <c r="D103">
-        <v>87.3302664434401</v>
+        <v>87.33118833620388</v>
       </c>
       <c r="E103">
-        <v>91.11222186778734</v>
+        <v>91.11314607353277</v>
       </c>
       <c r="F103">
         <v>89.12602587161606</v>
@@ -2457,13 +2457,13 @@
         <v>2686</v>
       </c>
       <c r="C104">
-        <v>89.12472478760141</v>
+        <v>89.12493495380481</v>
       </c>
       <c r="D104">
-        <v>87.2340956496961</v>
+        <v>87.23430520141657</v>
       </c>
       <c r="E104">
-        <v>91.01535392550672</v>
+        <v>91.01556470619305</v>
       </c>
       <c r="F104">
         <v>90.05034669651918</v>
@@ -2477,13 +2477,13 @@
         <v>2687</v>
       </c>
       <c r="C105">
-        <v>90.05100884693324</v>
+        <v>90.04925793406395</v>
       </c>
       <c r="D105">
-        <v>88.16040783306219</v>
+        <v>88.15865652896117</v>
       </c>
       <c r="E105">
-        <v>91.94160986080429</v>
+        <v>91.93985933916672</v>
       </c>
       <c r="F105">
         <v>90.02880137317787</v>
@@ -2497,13 +2497,13 @@
         <v>2688</v>
       </c>
       <c r="C106">
-        <v>90.0276621675138</v>
+        <v>90.02771191783235</v>
       </c>
       <c r="D106">
-        <v>88.13741260427295</v>
+        <v>88.1374620377529</v>
       </c>
       <c r="E106">
-        <v>91.91791173075464</v>
+        <v>91.9179617979118</v>
       </c>
       <c r="F106">
         <v>89.85564621729405</v>
@@ -2517,13 +2517,13 @@
         <v>2689</v>
       </c>
       <c r="C107">
-        <v>89.85423273001923</v>
+        <v>89.85454898539777</v>
       </c>
       <c r="D107">
-        <v>87.96432355445519</v>
+        <v>87.96463917966773</v>
       </c>
       <c r="E107">
-        <v>91.74414190558328</v>
+        <v>91.74445879112781</v>
       </c>
       <c r="F107">
         <v>89.6298728957286</v>
@@ -2537,13 +2537,13 @@
         <v>2690</v>
       </c>
       <c r="C108">
-        <v>89.6283369189785</v>
+        <v>89.62878277840325</v>
       </c>
       <c r="D108">
-        <v>87.73875999722399</v>
+        <v>87.7392053221984</v>
       </c>
       <c r="E108">
-        <v>91.51791384073302</v>
+        <v>91.5183602346081</v>
       </c>
       <c r="F108">
         <v>89.57855696780254</v>
@@ -2557,13 +2557,13 @@
         <v>2691</v>
       </c>
       <c r="C109">
-        <v>89.57736238578836</v>
+        <v>89.57746828974722</v>
       </c>
       <c r="D109">
-        <v>87.68813560228787</v>
+        <v>87.68824102534671</v>
       </c>
       <c r="E109">
-        <v>91.46658916928885</v>
+        <v>91.46669555414772</v>
       </c>
       <c r="F109">
         <v>89.75398194485425</v>
@@ -2577,13 +2577,13 @@
         <v>2692</v>
       </c>
       <c r="C110">
-        <v>89.75323968437989</v>
+        <v>89.75289440452997</v>
       </c>
       <c r="D110">
-        <v>87.86435216157464</v>
+        <v>87.86400638116407</v>
       </c>
       <c r="E110">
-        <v>91.64212720718514</v>
+        <v>91.64178242789586</v>
       </c>
       <c r="F110">
         <v>89.51239599691762</v>
@@ -2597,13 +2597,13 @@
         <v>2693</v>
       </c>
       <c r="C111">
-        <v>89.51084932453664</v>
+        <v>89.51129119077866</v>
       </c>
       <c r="D111">
-        <v>87.62229036951338</v>
+        <v>87.62273155845031</v>
       </c>
       <c r="E111">
-        <v>91.39940827955989</v>
+        <v>91.39985082310702</v>
       </c>
       <c r="F111">
         <v>89.45341206610014</v>
@@ -2617,13 +2617,13 @@
         <v>2694</v>
       </c>
       <c r="C112">
-        <v>89.45220651745349</v>
+        <v>89.45232167260062</v>
       </c>
       <c r="D112">
-        <v>87.56399694436037</v>
+        <v>87.56411165871646</v>
       </c>
       <c r="E112">
-        <v>91.34041609054661</v>
+        <v>91.34053168648478</v>
       </c>
       <c r="F112">
         <v>89.47555031680105</v>
@@ -2637,13 +2637,13 @@
         <v>2695</v>
       </c>
       <c r="C113">
-        <v>89.47450250646118</v>
+        <v>89.47444996294183</v>
       </c>
       <c r="D113">
-        <v>87.58664316659387</v>
+        <v>87.58658985523378</v>
       </c>
       <c r="E113">
-        <v>91.36236184632848</v>
+        <v>91.36231007064988</v>
       </c>
       <c r="F113">
         <v>89.3423718716315</v>
@@ -2657,13 +2657,13 @@
         <v>2696</v>
       </c>
       <c r="C114">
-        <v>89.34091744930576</v>
+        <v>89.34128273669174</v>
       </c>
       <c r="D114">
-        <v>87.45339888893287</v>
+        <v>87.45376643573651</v>
       </c>
       <c r="E114">
-        <v>91.22843600967866</v>
+        <v>91.22879903764697</v>
       </c>
       <c r="F114">
         <v>89.46817347389201</v>
@@ -2677,13 +2677,13 @@
         <v>2697</v>
       </c>
       <c r="C115">
-        <v>89.46723138743856</v>
+        <v>89.46707890138464</v>
       </c>
       <c r="D115">
-        <v>87.58005736576052</v>
+        <v>87.57990638870521</v>
       </c>
       <c r="E115">
-        <v>91.35440540911659</v>
+        <v>91.35425141406407</v>
       </c>
       <c r="F115">
         <v>89.32009368375606</v>
@@ -2697,13 +2697,13 @@
         <v>2698</v>
       </c>
       <c r="C116">
-        <v>89.31873989975848</v>
+        <v>89.31900267920093</v>
       </c>
       <c r="D116">
-        <v>87.4319095245863</v>
+        <v>87.43217182587235</v>
       </c>
       <c r="E116">
-        <v>91.20557027493066</v>
+        <v>91.20583353252952</v>
       </c>
       <c r="F116">
         <v>89.06595220414734</v>
@@ -2717,13 +2717,13 @@
         <v>2699</v>
       </c>
       <c r="C117">
-        <v>89.06437863320913</v>
+        <v>89.06486191938836</v>
       </c>
       <c r="D117">
-        <v>87.17787359828883</v>
+        <v>87.17835642577199</v>
       </c>
       <c r="E117">
-        <v>90.95088366812944</v>
+        <v>90.95136741300473</v>
       </c>
       <c r="F117">
         <v>89.18592913625444</v>
@@ -2737,13 +2737,13 @@
         <v>2700</v>
       </c>
       <c r="C118">
-        <v>89.1850545486035</v>
+        <v>89.18484087399604</v>
       </c>
       <c r="D118">
-        <v>87.29889339530371</v>
+        <v>87.29867932313913</v>
       </c>
       <c r="E118">
-        <v>91.0712157019033</v>
+        <v>91.07100242485295</v>
       </c>
       <c r="F118">
         <v>89.92074522879948</v>
@@ -2757,13 +2757,13 @@
         <v>2701</v>
       </c>
       <c r="C119">
-        <v>89.92117599789894</v>
+        <v>89.91966021717298</v>
       </c>
       <c r="D119">
-        <v>88.03516023101298</v>
+        <v>88.03364395237855</v>
       </c>
       <c r="E119">
-        <v>91.8071917647849</v>
+        <v>91.8056764819674</v>
       </c>
       <c r="F119">
         <v>89.60789558603251</v>
@@ -2777,13 +2777,13 @@
         <v>2702</v>
       </c>
       <c r="C120">
-        <v>89.60637075615573</v>
+        <v>89.60680869904006</v>
       </c>
       <c r="D120">
-        <v>87.72066700849746</v>
+        <v>87.72110468818653</v>
       </c>
       <c r="E120">
-        <v>91.492074503814</v>
+        <v>91.49251270989359</v>
       </c>
       <c r="F120">
         <v>89.39426319742361</v>
@@ -2797,13 +2797,13 @@
         <v>2703</v>
       </c>
       <c r="C121">
-        <v>89.39283674579303</v>
+        <v>89.39317279128778</v>
       </c>
       <c r="D121">
-        <v>87.50746478534978</v>
+        <v>87.50780045158477</v>
       </c>
       <c r="E121">
-        <v>91.27820870623628</v>
+        <v>91.27854513099079</v>
       </c>
       <c r="F121">
         <v>89.75398194485425</v>
@@ -2817,13 +2817,13 @@
         <v>2704</v>
       </c>
       <c r="C122">
-        <v>89.75336540598235</v>
+        <v>89.75289087198198</v>
       </c>
       <c r="D122">
-        <v>87.86829271124017</v>
+        <v>87.86781822567224</v>
       </c>
       <c r="E122">
-        <v>91.63843810072453</v>
+        <v>91.63796351829171</v>
       </c>
       <c r="F122">
         <v>89.79034663583158</v>
@@ -2837,13 +2837,13 @@
         <v>2705</v>
       </c>
       <c r="C123">
-        <v>89.78929261765688</v>
+        <v>89.78926150766848</v>
       </c>
       <c r="D123">
-        <v>87.90456789305721</v>
+        <v>87.90453696592385</v>
       </c>
       <c r="E123">
-        <v>91.67401734225656</v>
+        <v>91.67398604941312</v>
       </c>
       <c r="F123">
         <v>89.87736810929106</v>
@@ -2857,13 +2857,13 @@
         <v>2706</v>
       </c>
       <c r="C124">
-        <v>89.87638741653635</v>
+        <v>89.87628391944378</v>
       </c>
       <c r="D124">
-        <v>87.99200811157978</v>
+        <v>87.99190478438034</v>
       </c>
       <c r="E124">
-        <v>91.76076672149291</v>
+        <v>91.76066305450722</v>
       </c>
       <c r="F124">
         <v>89.67375919217635</v>
@@ -2877,13 +2877,13 @@
         <v>2707</v>
       </c>
       <c r="C125">
-        <v>89.6723816046842</v>
+        <v>89.67267363356167</v>
       </c>
       <c r="D125">
-        <v>87.78833486625439</v>
+        <v>87.78862704504812</v>
       </c>
       <c r="E125">
-        <v>91.55642834311402</v>
+        <v>91.55672022207523</v>
       </c>
       <c r="F125">
         <v>90.25749809861908</v>
@@ -2897,13 +2897,13 @@
         <v>2708</v>
       </c>
       <c r="C126">
-        <v>90.25680867934135</v>
+        <v>90.25641541239787</v>
       </c>
       <c r="D126">
-        <v>88.37297656925723</v>
+        <v>88.37258818876944</v>
       </c>
       <c r="E126">
-        <v>92.14064078942546</v>
+        <v>92.1402426360263</v>
       </c>
       <c r="F126">
         <v>89.84115257812945</v>
